--- a/Documents/Burndown 16.1.4.xlsx
+++ b/Documents/Burndown 16.1.4.xlsx
@@ -2079,7 +2079,7 @@
                   <c:v>93.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.0</c:v>
@@ -2109,8 +2109,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2144772344"/>
-        <c:axId val="-2144769288"/>
+        <c:axId val="-2135420312"/>
+        <c:axId val="-2135412392"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2299,7 +2299,7 @@
                   <c:v>4.280000000000001</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>#N/A</c:v>
+                  <c:v>3.159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>#N/A</c:v>
@@ -2331,11 +2331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2144772344"/>
-        <c:axId val="-2144769288"/>
+        <c:axId val="-2135420312"/>
+        <c:axId val="-2135412392"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2144772344"/>
+        <c:axId val="-2135420312"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2354,7 +2354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144769288"/>
+        <c:crossAx val="-2135412392"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2362,7 +2362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2144769288"/>
+        <c:axId val="-2135412392"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2410,14 +2410,13 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2144772344"/>
+        <c:crossAx val="-2135420312"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
-      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2531,7 +2530,7 @@
                   <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>0.0</c:v>
+                  <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
                   <c:v>0.0</c:v>
@@ -2561,8 +2560,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2090879832"/>
-        <c:axId val="2090876808"/>
+        <c:axId val="-2134404568"/>
+        <c:axId val="-2134401560"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2638,11 +2637,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2090879832"/>
-        <c:axId val="2090876808"/>
+        <c:axId val="-2134404568"/>
+        <c:axId val="-2134401560"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2090879832"/>
+        <c:axId val="-2134404568"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,7 +2660,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090876808"/>
+        <c:crossAx val="-2134401560"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2669,7 +2668,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2090876808"/>
+        <c:axId val="-2134401560"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2708,7 +2707,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2090879832"/>
+        <c:crossAx val="-2134404568"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3788,7 +3787,7 @@
   <dimension ref="B3:K31"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F26" sqref="F26"/>
+      <selection activeCell="F27" sqref="F27"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4028,21 +4027,24 @@
         <f t="shared" si="0"/>
         <v>75.84</v>
       </c>
-      <c r="F10" s="20"/>
-      <c r="G10" s="51" t="str">
+      <c r="F10" s="20">
+        <f>7+4+1+1+1</f>
+        <v>14</v>
+      </c>
+      <c r="G10" s="51">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H10" s="27" t="e">
+        <v>79</v>
+      </c>
+      <c r="H10" s="27">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>3.1599999999999966</v>
       </c>
       <c r="J10" s="22">
         <v>0</v>
       </c>
-      <c r="K10" s="29" t="e">
+      <c r="K10" s="29">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>3.1599999999999966</v>
       </c>
     </row>
     <row r="11" spans="2:11">
@@ -4377,14 +4379,16 @@
         <v>0</v>
       </c>
       <c r="D26" s="7"/>
-      <c r="E26" s="54" t="str">
+      <c r="E26" s="54">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F26" s="20"/>
-      <c r="G26" s="51" t="str">
+        <v>19</v>
+      </c>
+      <c r="F26" s="20">
+        <v>0</v>
+      </c>
+      <c r="G26" s="51">
         <f t="shared" si="6"/>
-        <v/>
+        <v>57.800000000000011</v>
       </c>
       <c r="H26" s="27">
         <f t="shared" si="7"/>

--- a/Documents/Burndown 16.1.4.xlsx
+++ b/Documents/Burndown 16.1.4.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="25516"/>
   <workbookPr showInkAnnotation="0" autoCompressPictures="0"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16240" tabRatio="500" activeTab="1"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="28800" windowHeight="16240" tabRatio="500" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Avaiability" sheetId="5" r:id="rId1"/>
@@ -2082,7 +2082,7 @@
                   <c:v>79.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -2109,8 +2109,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2135420312"/>
-        <c:axId val="-2135412392"/>
+        <c:axId val="2115581656"/>
+        <c:axId val="2115584664"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2302,7 +2302,7 @@
                   <c:v>3.159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.519999999999996</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>#N/A</c:v>
@@ -2331,11 +2331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2135420312"/>
-        <c:axId val="-2135412392"/>
+        <c:axId val="2115581656"/>
+        <c:axId val="2115584664"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2135420312"/>
+        <c:axId val="2115581656"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2354,7 +2354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135412392"/>
+        <c:crossAx val="2115584664"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2362,7 +2362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2135412392"/>
+        <c:axId val="2115584664"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2410,13 +2410,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2135420312"/>
+        <c:crossAx val="2115581656"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2530,10 +2531,10 @@
                   <c:v>19.0</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>19.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>0.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
                   <c:v>0.0</c:v>
@@ -2560,8 +2561,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="-2134404568"/>
-        <c:axId val="-2134401560"/>
+        <c:axId val="2031449640"/>
+        <c:axId val="2031452648"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2637,11 +2638,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="-2134404568"/>
-        <c:axId val="-2134401560"/>
+        <c:axId val="2031449640"/>
+        <c:axId val="2031452648"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="-2134404568"/>
+        <c:axId val="2031449640"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2660,7 +2661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134401560"/>
+        <c:crossAx val="2031452648"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2668,7 +2669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="-2134401560"/>
+        <c:axId val="2031452648"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2707,7 +2708,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="-2134404568"/>
+        <c:crossAx val="2031449640"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -3786,8 +3787,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B3:K31"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F27" sqref="F27"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="F28" sqref="F28"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -4061,21 +4062,24 @@
         <f t="shared" si="0"/>
         <v>58.480000000000004</v>
       </c>
-      <c r="F11" s="16"/>
-      <c r="G11" s="50" t="str">
+      <c r="F11" s="16">
+        <f>1+3+1+3+1+1+3+2+3+1</f>
+        <v>19</v>
+      </c>
+      <c r="G11" s="50">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H11" s="26" t="e">
+        <v>60</v>
+      </c>
+      <c r="H11" s="26">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>1.519999999999996</v>
       </c>
       <c r="J11" s="22">
         <v>0</v>
       </c>
-      <c r="K11" s="28" t="e">
+      <c r="K11" s="28">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>1.519999999999996</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -4381,14 +4385,14 @@
       <c r="D26" s="7"/>
       <c r="E26" s="54">
         <f t="shared" si="5"/>
-        <v>19</v>
+        <v>20</v>
       </c>
       <c r="F26" s="20">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G26" s="51">
         <f t="shared" si="6"/>
-        <v>57.800000000000011</v>
+        <v>56.800000000000011</v>
       </c>
       <c r="H26" s="27">
         <f t="shared" si="7"/>
@@ -4405,14 +4409,16 @@
         <v>0</v>
       </c>
       <c r="D27" s="3"/>
-      <c r="E27" s="53" t="str">
+      <c r="E27" s="53">
         <f t="shared" si="5"/>
-        <v/>
-      </c>
-      <c r="F27" s="16"/>
-      <c r="G27" s="50" t="str">
+        <v>20</v>
+      </c>
+      <c r="F27" s="16">
+        <v>0</v>
+      </c>
+      <c r="G27" s="50">
         <f t="shared" si="6"/>
-        <v/>
+        <v>56.800000000000011</v>
       </c>
       <c r="H27" s="26">
         <f t="shared" si="7"/>
@@ -4532,7 +4538,7 @@
   </sheetPr>
   <dimension ref="B2:O2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
+    <sheetView tabSelected="1" workbookViewId="0">
       <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
@@ -4654,7 +4660,7 @@
       </c>
       <c r="O2" s="40">
         <f>MIN('Burndown Data'!G21:G31)</f>
-        <v>57.800000000000011</v>
+        <v>56.800000000000011</v>
       </c>
     </row>
   </sheetData>

--- a/Documents/Burndown 16.1.4.xlsx
+++ b/Documents/Burndown 16.1.4.xlsx
@@ -2032,8 +2032,8 @@
           <c:layoutTarget val="inner"/>
           <c:xMode val="edge"/>
           <c:yMode val="edge"/>
-          <c:x val="0.0666960184072036"/>
-          <c:y val="0.0266423357664234"/>
+          <c:x val="0.0666960027883838"/>
+          <c:y val="0.0175182481751825"/>
           <c:w val="0.925387610168547"/>
           <c:h val="0.855773463992183"/>
         </c:manualLayout>
@@ -2085,13 +2085,13 @@
                   <c:v>60.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>51.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>29.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.0</c:v>
@@ -2109,8 +2109,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2115581656"/>
-        <c:axId val="2115584664"/>
+        <c:axId val="-2121600632"/>
+        <c:axId val="-2121597624"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2199,19 +2199,19 @@
                   <c:v>75.84</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>58.48</c:v>
+                  <c:v>62.96</c:v>
                 </c:pt>
                 <c:pt idx="7">
+                  <c:v>50.08</c:v>
+                </c:pt>
+                <c:pt idx="8">
                   <c:v>41.12</c:v>
                 </c:pt>
-                <c:pt idx="8">
-                  <c:v>23.20000000000001</c:v>
-                </c:pt>
                 <c:pt idx="9">
-                  <c:v>5.280000000000008</c:v>
+                  <c:v>27.68</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>0.0</c:v>
+                  <c:v>18.72</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2302,16 +2302,16 @@
                   <c:v>3.159999999999997</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>1.519999999999996</c:v>
+                  <c:v>-2.960000000000001</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>#N/A</c:v>
+                  <c:v>0.920000000000002</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>#N/A</c:v>
+                  <c:v>9.880000000000002</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>#N/A</c:v>
+                  <c:v>1.320000000000004</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>#N/A</c:v>
@@ -2331,11 +2331,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2115581656"/>
-        <c:axId val="2115584664"/>
+        <c:axId val="-2121600632"/>
+        <c:axId val="-2121597624"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2115581656"/>
+        <c:axId val="-2121600632"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2354,7 +2354,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115584664"/>
+        <c:crossAx val="-2121597624"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2362,7 +2362,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2115584664"/>
+        <c:axId val="-2121597624"/>
         <c:scaling>
           <c:orientation val="minMax"/>
           <c:min val="0.0"/>
@@ -2410,7 +2410,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2115581656"/>
+        <c:crossAx val="-2121600632"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
@@ -2537,13 +2537,13 @@
                   <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>0.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>0.0</c:v>
+                  <c:v>20.0</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>0.0</c:v>
+                  <c:v>36.0</c:v>
                 </c:pt>
                 <c:pt idx="10">
                   <c:v>0.0</c:v>
@@ -2561,8 +2561,8 @@
           <c:showBubbleSize val="0"/>
         </c:dLbls>
         <c:gapWidth val="150"/>
-        <c:axId val="2031449640"/>
-        <c:axId val="2031452648"/>
+        <c:axId val="-2121500904"/>
+        <c:axId val="-2121497896"/>
       </c:barChart>
       <c:lineChart>
         <c:grouping val="standard"/>
@@ -2591,37 +2591,37 @@
                 <c:formatCode>0</c:formatCode>
                 <c:ptCount val="11"/>
                 <c:pt idx="0">
-                  <c:v>76.80000000000001</c:v>
+                  <c:v>38.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="1">
-                  <c:v>76.80000000000001</c:v>
+                  <c:v>38.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="2">
-                  <c:v>76.80000000000001</c:v>
+                  <c:v>38.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="3">
-                  <c:v>76.80000000000001</c:v>
+                  <c:v>38.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="4">
-                  <c:v>76.80000000000001</c:v>
+                  <c:v>38.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="5">
-                  <c:v>76.80000000000001</c:v>
+                  <c:v>38.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="6">
-                  <c:v>76.80000000000001</c:v>
+                  <c:v>38.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="7">
-                  <c:v>76.80000000000001</c:v>
+                  <c:v>38.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="8">
-                  <c:v>76.80000000000001</c:v>
+                  <c:v>38.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="9">
-                  <c:v>76.80000000000001</c:v>
+                  <c:v>38.40000000000003</c:v>
                 </c:pt>
                 <c:pt idx="10">
-                  <c:v>76.80000000000001</c:v>
+                  <c:v>38.40000000000003</c:v>
                 </c:pt>
               </c:numCache>
             </c:numRef>
@@ -2638,11 +2638,11 @@
         </c:dLbls>
         <c:marker val="1"/>
         <c:smooth val="0"/>
-        <c:axId val="2031449640"/>
-        <c:axId val="2031452648"/>
+        <c:axId val="-2121500904"/>
+        <c:axId val="-2121497896"/>
       </c:lineChart>
       <c:catAx>
-        <c:axId val="2031449640"/>
+        <c:axId val="-2121500904"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2661,7 +2661,7 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2031452648"/>
+        <c:crossAx val="-2121497896"/>
         <c:crosses val="autoZero"/>
         <c:auto val="1"/>
         <c:lblAlgn val="ctr"/>
@@ -2669,7 +2669,7 @@
         <c:noMultiLvlLbl val="0"/>
       </c:catAx>
       <c:valAx>
-        <c:axId val="2031452648"/>
+        <c:axId val="-2121497896"/>
         <c:scaling>
           <c:orientation val="minMax"/>
         </c:scaling>
@@ -2692,6 +2692,7 @@
               </a:p>
             </c:rich>
           </c:tx>
+          <c:layout/>
           <c:overlay val="0"/>
         </c:title>
         <c:numFmt formatCode="0" sourceLinked="1"/>
@@ -2708,13 +2709,14 @@
             <a:endParaRPr lang="en-US"/>
           </a:p>
         </c:txPr>
-        <c:crossAx val="2031449640"/>
+        <c:crossAx val="-2121500904"/>
         <c:crosses val="autoZero"/>
         <c:crossBetween val="between"/>
       </c:valAx>
     </c:plotArea>
     <c:legend>
       <c:legendPos val="b"/>
+      <c:layout/>
       <c:overlay val="0"/>
     </c:legend>
     <c:plotVisOnly val="1"/>
@@ -2761,6 +2763,70 @@
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>10</xdr:col>
+      <xdr:colOff>215900</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>88900</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>393700</xdr:colOff>
+      <xdr:row>22</xdr:row>
+      <xdr:rowOff>12700</xdr:rowOff>
+    </xdr:to>
+    <xdr:sp macro="" textlink="">
+      <xdr:nvSpPr>
+        <xdr:cNvPr id="3" name="Rounded Rectangular Callout 2"/>
+        <xdr:cNvSpPr/>
+      </xdr:nvSpPr>
+      <xdr:spPr>
+        <a:xfrm>
+          <a:off x="9321800" y="3517900"/>
+          <a:ext cx="2895600" cy="876300"/>
+        </a:xfrm>
+        <a:prstGeom prst="wedgeRoundRectCallout">
+          <a:avLst>
+            <a:gd name="adj1" fmla="val 37501"/>
+            <a:gd name="adj2" fmla="val 166297"/>
+            <a:gd name="adj3" fmla="val 16667"/>
+          </a:avLst>
+        </a:prstGeom>
+        <a:ln/>
+      </xdr:spPr>
+      <xdr:style>
+        <a:lnRef idx="1">
+          <a:schemeClr val="accent1"/>
+        </a:lnRef>
+        <a:fillRef idx="3">
+          <a:schemeClr val="accent1"/>
+        </a:fillRef>
+        <a:effectRef idx="2">
+          <a:schemeClr val="accent1"/>
+        </a:effectRef>
+        <a:fontRef idx="minor">
+          <a:schemeClr val="lt1"/>
+        </a:fontRef>
+      </xdr:style>
+      <xdr:txBody>
+        <a:bodyPr wrap="square"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600"/>
+            <a:t>Louis was ill for a</a:t>
+          </a:r>
+          <a:r>
+            <a:rPr lang="en-US" sz="1600" baseline="0"/>
+            <a:t> week and Rainer had embassy troubles</a:t>
+          </a:r>
+          <a:endParaRPr lang="en-US" sz="1600"/>
+        </a:p>
+      </xdr:txBody>
+    </xdr:sp>
     <xdr:clientData/>
   </xdr:twoCellAnchor>
 </xdr:wsDr>
@@ -3128,7 +3194,7 @@
   <dimension ref="B3:Q22"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C7" sqref="C7"/>
+      <selection activeCell="G13" sqref="G13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3437,7 +3503,7 @@
         <v>8</v>
       </c>
       <c r="G9" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H9" s="8">
         <v>8</v>
@@ -3462,15 +3528,15 @@
       </c>
       <c r="O9" s="33">
         <f>SUM(Avaiability!$F9:$N9)</f>
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="P9" s="56">
         <f t="shared" si="0"/>
-        <v>2.6156250000000001</v>
+        <v>1.940625</v>
       </c>
       <c r="Q9" s="47">
         <f t="shared" si="1"/>
-        <v>24.8</v>
+        <v>18.400000000000002</v>
       </c>
     </row>
     <row r="10" spans="2:17">
@@ -3482,7 +3548,7 @@
         <v>8</v>
       </c>
       <c r="G10" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H10" s="9">
         <v>8</v>
@@ -3507,15 +3573,15 @@
       </c>
       <c r="O10" s="32">
         <f>SUM(Avaiability!$F10:$N10)</f>
-        <v>31</v>
+        <v>23</v>
       </c>
       <c r="P10" s="55">
         <f t="shared" si="0"/>
-        <v>2.6156250000000001</v>
+        <v>1.940625</v>
       </c>
       <c r="Q10" s="46">
         <f t="shared" si="1"/>
-        <v>24.8</v>
+        <v>18.400000000000002</v>
       </c>
     </row>
     <row r="11" spans="2:17">
@@ -3532,13 +3598,13 @@
         <v>8</v>
       </c>
       <c r="G11" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H11" s="8">
         <v>8</v>
       </c>
       <c r="I11" s="8">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="J11" s="8">
         <v>0</v>
@@ -3557,15 +3623,15 @@
       </c>
       <c r="O11" s="33">
         <f>SUM(Avaiability!$F11:$N11)</f>
-        <v>32</v>
+        <v>16</v>
       </c>
       <c r="P11" s="56">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>1.35</v>
       </c>
       <c r="Q11" s="47">
         <f t="shared" si="1"/>
-        <v>25.6</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="12" spans="2:17">
@@ -3583,7 +3649,7 @@
         <v>8</v>
       </c>
       <c r="G12" s="9">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="H12" s="9">
         <v>8</v>
@@ -3608,15 +3674,15 @@
       </c>
       <c r="O12" s="32">
         <f>SUM(Avaiability!$F12:$N12)</f>
-        <v>32</v>
+        <v>24</v>
       </c>
       <c r="P12" s="55">
         <f t="shared" si="0"/>
-        <v>2.7</v>
+        <v>2.0250000000000004</v>
       </c>
       <c r="Q12" s="46">
         <f t="shared" si="1"/>
-        <v>25.6</v>
+        <v>19.200000000000003</v>
       </c>
     </row>
     <row r="13" spans="2:17">
@@ -3637,7 +3703,7 @@
         <v>0</v>
       </c>
       <c r="H13" s="34">
-        <v>8</v>
+        <v>0</v>
       </c>
       <c r="I13" s="34">
         <v>8</v>
@@ -3659,15 +3725,15 @@
       </c>
       <c r="O13" s="35">
         <f>SUM(Avaiability!$F13:$N13)</f>
-        <v>24</v>
+        <v>16</v>
       </c>
       <c r="P13" s="57">
         <f t="shared" si="0"/>
-        <v>2.0250000000000004</v>
+        <v>1.35</v>
       </c>
       <c r="Q13" s="48">
         <f t="shared" si="1"/>
-        <v>19.200000000000003</v>
+        <v>12.8</v>
       </c>
     </row>
     <row r="14" spans="2:17">
@@ -3676,7 +3742,7 @@
       </c>
       <c r="C14" s="38">
         <f>O14/(40*C9*C8)</f>
-        <v>0.89375000000000004</v>
+        <v>0.74375000000000002</v>
       </c>
       <c r="E14" s="13" t="s">
         <v>5</v>
@@ -3687,15 +3753,15 @@
       </c>
       <c r="G14" s="13">
         <f t="shared" ref="G14:N14" si="2">SUM(G4:G13)</f>
-        <v>64</v>
+        <v>32</v>
       </c>
       <c r="H14" s="13">
         <f t="shared" si="2"/>
-        <v>80</v>
+        <v>72</v>
       </c>
       <c r="I14" s="13">
         <f t="shared" si="2"/>
-        <v>74</v>
+        <v>66</v>
       </c>
       <c r="J14" s="13">
         <f t="shared" si="2"/>
@@ -3719,15 +3785,15 @@
       </c>
       <c r="O14" s="13">
         <f>SUM(Avaiability!$F14:$N14)</f>
-        <v>286</v>
+        <v>238</v>
       </c>
       <c r="P14" s="49">
         <f t="shared" si="0"/>
-        <v>24.131250000000001</v>
+        <v>20.081250000000001</v>
       </c>
       <c r="Q14" s="49">
         <f>SUM(Q4:Q13)</f>
-        <v>228.8</v>
+        <v>190.40000000000003</v>
       </c>
     </row>
     <row r="15" spans="2:17">
@@ -3736,7 +3802,7 @@
       </c>
       <c r="C15" s="37">
         <f>C11*C14</f>
-        <v>24.131250000000001</v>
+        <v>20.081250000000001</v>
       </c>
     </row>
     <row r="16" spans="2:17">
@@ -3788,7 +3854,7 @@
   <dimension ref="B3:K31"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="F28" sqref="F28"/>
+      <selection activeCell="F13" sqref="F13"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0"/>
@@ -3806,7 +3872,7 @@
       </c>
       <c r="C3" s="39">
         <f>Avaiability!Q14*(1-Avaiability!$C$21)</f>
-        <v>160.16</v>
+        <v>133.28000000000003</v>
       </c>
       <c r="D3" s="17"/>
       <c r="E3" s="52">
@@ -4021,7 +4087,7 @@
       </c>
       <c r="C10" s="54">
         <f>Avaiability!Q9*(1-Avaiability!$C$21)</f>
-        <v>17.36</v>
+        <v>12.88</v>
       </c>
       <c r="D10" s="7"/>
       <c r="E10" s="54">
@@ -4055,12 +4121,12 @@
       </c>
       <c r="C11" s="53">
         <f>Avaiability!Q10*(1-Avaiability!$C$21)</f>
-        <v>17.36</v>
+        <v>12.88</v>
       </c>
       <c r="D11" s="3"/>
       <c r="E11" s="53">
         <f t="shared" si="0"/>
-        <v>58.480000000000004</v>
+        <v>62.96</v>
       </c>
       <c r="F11" s="16">
         <f>1+3+1+3+1+1+3+2+3+1</f>
@@ -4072,14 +4138,14 @@
       </c>
       <c r="H11" s="26">
         <f t="shared" si="3"/>
-        <v>1.519999999999996</v>
+        <v>-2.9600000000000009</v>
       </c>
       <c r="J11" s="22">
         <v>0</v>
       </c>
       <c r="K11" s="28">
         <f t="shared" si="1"/>
-        <v>1.519999999999996</v>
+        <v>-2.9600000000000009</v>
       </c>
     </row>
     <row r="12" spans="2:11">
@@ -4089,28 +4155,30 @@
       </c>
       <c r="C12" s="54">
         <f>Avaiability!Q11*(1-Avaiability!$C$21)</f>
-        <v>17.919999999999998</v>
+        <v>8.9599999999999991</v>
       </c>
       <c r="D12" s="7"/>
       <c r="E12" s="54">
         <f t="shared" si="0"/>
-        <v>41.120000000000005</v>
-      </c>
-      <c r="F12" s="20"/>
-      <c r="G12" s="51" t="str">
+        <v>50.08</v>
+      </c>
+      <c r="F12" s="20">
+        <v>9</v>
+      </c>
+      <c r="G12" s="51">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H12" s="27" t="e">
+        <v>51</v>
+      </c>
+      <c r="H12" s="27">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>0.92000000000000171</v>
       </c>
       <c r="J12" s="22">
         <v>0</v>
       </c>
-      <c r="K12" s="29" t="e">
+      <c r="K12" s="29">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>0.92000000000000171</v>
       </c>
     </row>
     <row r="13" spans="2:11" s="18" customFormat="1" ht="15" customHeight="1">
@@ -4120,28 +4188,30 @@
       </c>
       <c r="C13" s="53">
         <f>Avaiability!Q12*(1-Avaiability!$C$21)</f>
-        <v>17.919999999999998</v>
+        <v>13.440000000000001</v>
       </c>
       <c r="D13" s="3"/>
       <c r="E13" s="53">
         <f t="shared" si="0"/>
-        <v>23.200000000000006</v>
-      </c>
-      <c r="F13" s="16"/>
-      <c r="G13" s="50" t="str">
+        <v>41.12</v>
+      </c>
+      <c r="F13" s="16">
+        <v>0</v>
+      </c>
+      <c r="G13" s="50">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H13" s="26" t="e">
+        <v>51</v>
+      </c>
+      <c r="H13" s="26">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>9.8800000000000026</v>
       </c>
       <c r="J13" s="22">
         <v>0</v>
       </c>
-      <c r="K13" s="28" t="e">
+      <c r="K13" s="28">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>9.8800000000000026</v>
       </c>
     </row>
     <row r="14" spans="2:11">
@@ -4151,28 +4221,31 @@
       </c>
       <c r="C14" s="54">
         <f>Avaiability!Q13*(1-Avaiability!$C$21)</f>
-        <v>13.440000000000001</v>
+        <v>8.9599999999999991</v>
       </c>
       <c r="D14" s="7"/>
       <c r="E14" s="54">
         <f t="shared" ref="E14" si="4">MAX(0,E13-C13+J13)</f>
-        <v>5.2800000000000082</v>
-      </c>
-      <c r="F14" s="20"/>
-      <c r="G14" s="51" t="str">
+        <v>27.679999999999996</v>
+      </c>
+      <c r="F14" s="20">
+        <f>3+6+3+2+1+1+6</f>
+        <v>22</v>
+      </c>
+      <c r="G14" s="51">
         <f t="shared" si="2"/>
-        <v/>
-      </c>
-      <c r="H14" s="27" t="e">
+        <v>29</v>
+      </c>
+      <c r="H14" s="27">
         <f t="shared" si="3"/>
-        <v>#N/A</v>
+        <v>1.3200000000000038</v>
       </c>
       <c r="J14" s="22">
         <v>0</v>
       </c>
-      <c r="K14" s="29" t="e">
+      <c r="K14" s="29">
         <f t="shared" si="1"/>
-        <v>#N/A</v>
+        <v>1.3200000000000038</v>
       </c>
     </row>
     <row r="15" spans="2:11">
@@ -4185,7 +4258,7 @@
       <c r="D15" s="3"/>
       <c r="E15" s="53">
         <f t="shared" si="0"/>
-        <v>0</v>
+        <v>18.72</v>
       </c>
       <c r="F15" s="24"/>
       <c r="G15" s="50" t="str">
@@ -4210,7 +4283,7 @@
       </c>
       <c r="C19" s="39">
         <f>Avaiability!Q14*Avaiability!C21+C3-E3</f>
-        <v>76.800000000000011</v>
+        <v>38.400000000000034</v>
       </c>
       <c r="D19" s="17"/>
       <c r="E19" s="52">
@@ -4260,11 +4333,11 @@
       </c>
       <c r="G21" s="50">
         <f>IF(F21="","",C19-F21)</f>
-        <v>76.800000000000011</v>
+        <v>38.400000000000034</v>
       </c>
       <c r="H21" s="26">
         <f>C19</f>
-        <v>76.800000000000011</v>
+        <v>38.400000000000034</v>
       </c>
     </row>
     <row r="22" spans="2:8">
@@ -4287,11 +4360,11 @@
       </c>
       <c r="G22" s="51">
         <f>IF(F22="","",MAX(0,G21-F22))</f>
-        <v>68.800000000000011</v>
+        <v>30.400000000000034</v>
       </c>
       <c r="H22" s="27">
         <f>H21</f>
-        <v>76.800000000000011</v>
+        <v>38.400000000000034</v>
       </c>
     </row>
     <row r="23" spans="2:8">
@@ -4313,11 +4386,11 @@
       </c>
       <c r="G23" s="50">
         <f t="shared" ref="G23:G31" si="6">IF(F23="","",MAX(0,G22-F23+J23))</f>
-        <v>66.800000000000011</v>
+        <v>28.400000000000034</v>
       </c>
       <c r="H23" s="26">
         <f t="shared" ref="H23:H31" si="7">H22</f>
-        <v>76.800000000000011</v>
+        <v>38.400000000000034</v>
       </c>
     </row>
     <row r="24" spans="2:8">
@@ -4340,11 +4413,11 @@
       </c>
       <c r="G24" s="51">
         <f t="shared" si="6"/>
-        <v>60.800000000000011</v>
+        <v>22.400000000000034</v>
       </c>
       <c r="H24" s="27">
         <f t="shared" si="7"/>
-        <v>76.800000000000011</v>
+        <v>38.400000000000034</v>
       </c>
     </row>
     <row r="25" spans="2:8">
@@ -4366,11 +4439,11 @@
       </c>
       <c r="G25" s="50">
         <f t="shared" si="6"/>
-        <v>57.800000000000011</v>
+        <v>19.400000000000034</v>
       </c>
       <c r="H25" s="26">
         <f t="shared" si="7"/>
-        <v>76.800000000000011</v>
+        <v>38.400000000000034</v>
       </c>
     </row>
     <row r="26" spans="2:8">
@@ -4392,11 +4465,11 @@
       </c>
       <c r="G26" s="51">
         <f t="shared" si="6"/>
-        <v>56.800000000000011</v>
+        <v>18.400000000000034</v>
       </c>
       <c r="H26" s="27">
         <f t="shared" si="7"/>
-        <v>76.800000000000011</v>
+        <v>38.400000000000034</v>
       </c>
     </row>
     <row r="27" spans="2:8">
@@ -4418,11 +4491,11 @@
       </c>
       <c r="G27" s="50">
         <f t="shared" si="6"/>
-        <v>56.800000000000011</v>
+        <v>18.400000000000034</v>
       </c>
       <c r="H27" s="26">
         <f t="shared" si="7"/>
-        <v>76.800000000000011</v>
+        <v>38.400000000000034</v>
       </c>
     </row>
     <row r="28" spans="2:8">
@@ -4435,18 +4508,20 @@
         <v>0</v>
       </c>
       <c r="D28" s="7"/>
-      <c r="E28" s="54" t="str">
+      <c r="E28" s="54">
         <f>IF(F28="","",E27+F28)</f>
-        <v/>
-      </c>
-      <c r="F28" s="20"/>
-      <c r="G28" s="51" t="str">
+        <v>20</v>
+      </c>
+      <c r="F28" s="20">
+        <v>0</v>
+      </c>
+      <c r="G28" s="51">
         <f t="shared" si="6"/>
-        <v/>
+        <v>18.400000000000034</v>
       </c>
       <c r="H28" s="27">
         <f t="shared" si="7"/>
-        <v>76.800000000000011</v>
+        <v>38.400000000000034</v>
       </c>
     </row>
     <row r="29" spans="2:8">
@@ -4459,18 +4534,20 @@
         <v>0</v>
       </c>
       <c r="D29" s="3"/>
-      <c r="E29" s="53" t="str">
+      <c r="E29" s="53">
         <f t="shared" ref="E29:E31" si="8">IF(F29="","",E28+F29)</f>
-        <v/>
-      </c>
-      <c r="F29" s="16"/>
-      <c r="G29" s="50" t="str">
+        <v>20</v>
+      </c>
+      <c r="F29" s="16">
+        <v>0</v>
+      </c>
+      <c r="G29" s="50">
         <f t="shared" si="6"/>
-        <v/>
+        <v>18.400000000000034</v>
       </c>
       <c r="H29" s="26">
         <f t="shared" si="7"/>
-        <v>76.800000000000011</v>
+        <v>38.400000000000034</v>
       </c>
     </row>
     <row r="30" spans="2:8">
@@ -4483,18 +4560,21 @@
         <v>0</v>
       </c>
       <c r="D30" s="7"/>
-      <c r="E30" s="54" t="str">
+      <c r="E30" s="54">
         <f t="shared" si="8"/>
-        <v/>
-      </c>
-      <c r="F30" s="20"/>
-      <c r="G30" s="51" t="str">
+        <v>36</v>
+      </c>
+      <c r="F30" s="20">
+        <f>2+6+8</f>
+        <v>16</v>
+      </c>
+      <c r="G30" s="51">
         <f t="shared" si="6"/>
-        <v/>
+        <v>2.4000000000000341</v>
       </c>
       <c r="H30" s="27">
         <f t="shared" si="7"/>
-        <v>76.800000000000011</v>
+        <v>38.400000000000034</v>
       </c>
     </row>
     <row r="31" spans="2:8">
@@ -4516,7 +4596,7 @@
       </c>
       <c r="H31" s="26">
         <f t="shared" si="7"/>
-        <v>76.800000000000011</v>
+        <v>38.400000000000034</v>
       </c>
     </row>
   </sheetData>
@@ -4538,7 +4618,7 @@
   </sheetPr>
   <dimension ref="B2:O2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView tabSelected="1" topLeftCell="A22" workbookViewId="0">
       <selection activeCell="S32" sqref="S32"/>
     </sheetView>
   </sheetViews>
@@ -4610,7 +4690,7 @@
   </sheetPr>
   <dimension ref="B2:O2"/>
   <sheetViews>
-    <sheetView topLeftCell="A2" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="J45" sqref="J45"/>
     </sheetView>
   </sheetViews>
@@ -4644,7 +4724,7 @@
       </c>
       <c r="I2" s="40">
         <f>'Burndown Data'!C19</f>
-        <v>76.800000000000011</v>
+        <v>38.400000000000034</v>
       </c>
       <c r="J2" s="1"/>
       <c r="K2" s="30" t="s">
@@ -4652,7 +4732,7 @@
       </c>
       <c r="L2" s="40">
         <f>MAX('Burndown Data'!F21:F31)</f>
-        <v>8</v>
+        <v>16</v>
       </c>
       <c r="M2" s="1"/>
       <c r="N2" s="30" t="s">
@@ -4660,7 +4740,7 @@
       </c>
       <c r="O2" s="40">
         <f>MIN('Burndown Data'!G21:G31)</f>
-        <v>56.800000000000011</v>
+        <v>2.4000000000000341</v>
       </c>
     </row>
   </sheetData>
